--- a/config_8.10/game_enter_btn_config.xlsx
+++ b/config_8.10/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="380">
   <si>
     <t>id|行号</t>
   </si>
@@ -1316,55 +1316,53 @@
     <t>"act_040_mslb",</t>
   </si>
   <si>
+    <t>秒杀礼包-捕鱼</t>
+  </si>
+  <si>
+    <t>秒杀礼包-cjj</t>
+  </si>
+  <si>
+    <t>"sys_txz",</t>
+  </si>
+  <si>
+    <t>通行证</t>
+  </si>
+  <si>
+    <t>"act_cjdb",</t>
+  </si>
+  <si>
+    <t>超级夺宝</t>
+  </si>
+  <si>
+    <t>"act_042_xshb",</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_txz</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>"act_027_qyzl",</t>
+  </si>
+  <si>
+    <t>七月赠礼</t>
+  </si>
+  <si>
+    <t>活动栏礼包，修改第二个参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>秒杀礼包-捕鱼</t>
-  </si>
-  <si>
-    <t>秒杀礼包-cjj</t>
-  </si>
-  <si>
-    <t>"sys_txz",</t>
-  </si>
-  <si>
-    <t>通行证</t>
-  </si>
-  <si>
-    <t>"act_cjdb",</t>
-  </si>
-  <si>
-    <t>超级夺宝</t>
-  </si>
-  <si>
-    <t>"act_042_xshb",</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_txz</t>
-  </si>
-  <si>
-    <t>限时红包</t>
-  </si>
-  <si>
-    <t>"act_027_qyzl",</t>
-  </si>
-  <si>
-    <t>七月赠礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>"act_ty_gifts","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gift_hflb</t>
+      <t>"act_ty_gifts","gift_khlb</t>
     </r>
     <r>
       <rPr>
@@ -1379,10 +1377,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>活动栏礼包，修改第二个参数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_notcjj</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1391,7 +1385,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>120#</t>
+    <t>132;120#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3018,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3043,7 +3037,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3144,11 +3138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5275,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E121">
         <v>120</v>
@@ -5488,16 +5482,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E133" s="5">
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5588,13 +5585,13 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5614,7 +5611,7 @@
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5640,19 +5637,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="D141" t="s">
-        <v>362</v>
+      <c r="D141" s="29" t="s">
+        <v>377</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5660,7 +5657,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5672,7 +5669,7 @@
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5680,19 +5677,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>369</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>370</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5700,7 +5697,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5712,7 +5709,7 @@
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
